--- a/задания excel.xlsx
+++ b/задания excel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1111\GitHub\115-dz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" tabRatio="897" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="январь" sheetId="1" r:id="rId1"/>
@@ -20,13 +25,17 @@
     <sheet name="ноябрь" sheetId="11" r:id="rId11"/>
     <sheet name="декабрь" sheetId="12" r:id="rId12"/>
     <sheet name="Задание_2" sheetId="13" r:id="rId13"/>
+    <sheet name="Лист1" sheetId="14" r:id="rId14"/>
+    <sheet name="Лист2" sheetId="15" r:id="rId15"/>
+    <sheet name="Лист3" sheetId="16" r:id="rId16"/>
+    <sheet name="Лист4" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>вторник</t>
   </si>
@@ -77,12 +86,198 @@
   </si>
   <si>
     <t>Беляев</t>
+  </si>
+  <si>
+    <t>Абитуриенты</t>
+  </si>
+  <si>
+    <t>Фамилия  Имя</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Сочинение</t>
+  </si>
+  <si>
+    <t>Сумма баллов</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
+  <si>
+    <t>Бобров Игорь</t>
+  </si>
+  <si>
+    <t>=СУММ(B3:D3)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B3:D3)</t>
+  </si>
+  <si>
+    <t>Городилов Андрей</t>
+  </si>
+  <si>
+    <t>=СУММ(B4:D4)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B4:D4)</t>
+  </si>
+  <si>
+    <t>Лосева Ольга</t>
+  </si>
+  <si>
+    <t>=СУММ(B5:D5)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B5:D5)</t>
+  </si>
+  <si>
+    <t>Орехова Татьяна</t>
+  </si>
+  <si>
+    <t>=СУММ(B6:D6)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B6:D6)</t>
+  </si>
+  <si>
+    <t>Орлова Анна</t>
+  </si>
+  <si>
+    <t>=СУММ(B7:D7)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B7:D7)</t>
+  </si>
+  <si>
+    <t>Петров Олег</t>
+  </si>
+  <si>
+    <t>=СУММ(B8:D8)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B8:D8)</t>
+  </si>
+  <si>
+    <t>Семенова Ирина</t>
+  </si>
+  <si>
+    <t>=СУММ(B9:D9)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B9:D9)</t>
+  </si>
+  <si>
+    <t>Симонова Елена</t>
+  </si>
+  <si>
+    <t>=СУММ(B10:D10)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B10:D10)</t>
+  </si>
+  <si>
+    <t>Сомов Виктор</t>
+  </si>
+  <si>
+    <t>=СУММ(B11:D11)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B11:D11)</t>
+  </si>
+  <si>
+    <t>Суслов Иван</t>
+  </si>
+  <si>
+    <t>=СУММ(B12:D12)</t>
+  </si>
+  <si>
+    <t>=СРЗНАЧ(B12:D12)</t>
+  </si>
+  <si>
+    <t>Название озер</t>
+  </si>
+  <si>
+    <t>Площадь  (тыс. кв. м.)</t>
+  </si>
+  <si>
+    <t>Глубина (м)</t>
+  </si>
+  <si>
+    <t>Высота над уровнем моря</t>
+  </si>
+  <si>
+    <t>Байкал</t>
+  </si>
+  <si>
+    <t>Таньганьика</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Гурон</t>
+  </si>
+  <si>
+    <t>Аральское море</t>
+  </si>
+  <si>
+    <t>Мичиган</t>
+  </si>
+  <si>
+    <t>Наименьшая глубина</t>
+  </si>
+  <si>
+    <t>Наибольшая  площадь</t>
+  </si>
+  <si>
+    <t>Средняя высота</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Предмет                        Фамилии</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>Литера- тура</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Иванов Петя</t>
+  </si>
+  <si>
+    <t>Васильев Вася</t>
+  </si>
+  <si>
+    <t>Ли Коля</t>
+  </si>
+  <si>
+    <t>Ян Миша</t>
+  </si>
+  <si>
+    <t>Сидорова Таня</t>
+  </si>
+  <si>
+    <t>Средний балл по группе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +334,29 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -200,11 +416,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,6 +463,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -249,6 +524,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -297,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +610,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -773,6 +1051,906 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" ref="E3:E12" si="0">SUM(B3:D3)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" ref="F3:F12" si="1">AVERAGE(B3:D3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>31.5</v>
+      </c>
+      <c r="C2">
+        <v>1520</v>
+      </c>
+      <c r="D2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>14701</v>
+      </c>
+      <c r="D3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>59.6</v>
+      </c>
+      <c r="C5">
+        <v>288</v>
+      </c>
+      <c r="D5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>51.1</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>281</v>
+      </c>
+      <c r="D7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <f>MIN(C2:C7)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <f>MAX(B2:B7)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(D2:D7)</f>
+        <v>461.66666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="26">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27">
+        <v>5</v>
+      </c>
+      <c r="E2" s="27">
+        <v>5</v>
+      </c>
+      <c r="F2" s="27">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27">
+        <v>5</v>
+      </c>
+      <c r="H2" s="27">
+        <v>5</v>
+      </c>
+      <c r="I2" s="27">
+        <v>5</v>
+      </c>
+      <c r="J2" s="28">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="29">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29">
+        <v>3</v>
+      </c>
+      <c r="F3" s="29">
+        <v>3</v>
+      </c>
+      <c r="G3" s="29">
+        <v>3</v>
+      </c>
+      <c r="H3" s="29">
+        <v>3</v>
+      </c>
+      <c r="I3" s="29">
+        <v>3</v>
+      </c>
+      <c r="J3" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26">
+        <v>4</v>
+      </c>
+      <c r="E4" s="26">
+        <v>4</v>
+      </c>
+      <c r="F4" s="26">
+        <v>4</v>
+      </c>
+      <c r="G4" s="26">
+        <v>4</v>
+      </c>
+      <c r="H4" s="26">
+        <v>4</v>
+      </c>
+      <c r="I4" s="26">
+        <v>4</v>
+      </c>
+      <c r="J4" s="30">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="26">
+        <v>4</v>
+      </c>
+      <c r="D5" s="26">
+        <v>4</v>
+      </c>
+      <c r="E5" s="27">
+        <v>5</v>
+      </c>
+      <c r="F5" s="27">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27">
+        <v>5</v>
+      </c>
+      <c r="H5" s="27">
+        <v>5</v>
+      </c>
+      <c r="I5" s="27">
+        <v>5</v>
+      </c>
+      <c r="J5" s="31">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="27">
+        <v>5</v>
+      </c>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
+      <c r="F6" s="26">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26">
+        <v>4</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4</v>
+      </c>
+      <c r="I6" s="26">
+        <v>4</v>
+      </c>
+      <c r="J6" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34">
+        <f t="shared" ref="C7:I7" si="0">AVERAGE(C2:C6)</f>
+        <v>3.2</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="J7" s="31">
+        <v>4.0599999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/задания excel.xlsx
+++ b/задания excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" tabRatio="897" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" tabRatio="897" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="январь" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="Лист2" sheetId="15" r:id="rId15"/>
     <sheet name="Лист3" sheetId="16" r:id="rId16"/>
     <sheet name="Лист4" sheetId="17" r:id="rId17"/>
+    <sheet name="Лист5" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>вторник</t>
   </si>
@@ -272,6 +273,27 @@
   </si>
   <si>
     <t>Средний балл по группе</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>y6</t>
   </si>
 </sst>
 </file>
@@ -464,9 +486,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -513,6 +532,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,6 +552,1874 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74DA-4331-8A3E-599148517BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74DA-4331-8A3E-599148517BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-74DA-4331-8A3E-599148517BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="16">
+                  <c:v>4.7901234567901234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1477623456790127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7959104938271606</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9753086419753085</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.96875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.6975308641975309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0736882716049392</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-74DA-4331-8A3E-599148517BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-74DA-4331-8A3E-599148517BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист5!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="8">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-74DA-4331-8A3E-599148517BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="347515312"/>
+        <c:axId val="347519472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="347515312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347519472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="347519472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347515312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1068,32 +2958,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1110,15 +3000,15 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B4">
@@ -1130,10 +3020,10 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1150,15 +3040,15 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B6">
@@ -1170,10 +3060,10 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1190,15 +3080,15 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B8">
@@ -1210,15 +3100,15 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B9">
@@ -1230,15 +3120,15 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B10">
@@ -1250,15 +3140,15 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11">
@@ -1270,15 +3160,15 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B12">
@@ -1290,10 +3180,10 @@
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1316,32 +3206,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1358,17 +3248,17 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <f t="shared" ref="E3:E12" si="0">SUM(B3:D3)</f>
         <v>12</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f t="shared" ref="F3:F12" si="1">AVERAGE(B3:D3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B4">
@@ -1380,11 +3270,11 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
@@ -1402,17 +3292,17 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B6">
@@ -1424,11 +3314,11 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
@@ -1446,17 +3336,17 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B8">
@@ -1468,17 +3358,17 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B9">
@@ -1490,17 +3380,17 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B10">
@@ -1512,17 +3402,17 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B11">
@@ -1534,17 +3424,17 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B12">
@@ -1556,11 +3446,11 @@
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
@@ -1587,13 +3477,13 @@
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1717,243 +3607,655 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="26">
-        <v>4</v>
-      </c>
-      <c r="D2" s="27">
-        <v>5</v>
-      </c>
-      <c r="E2" s="27">
-        <v>5</v>
-      </c>
-      <c r="F2" s="27">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27">
-        <v>5</v>
-      </c>
-      <c r="H2" s="27">
-        <v>5</v>
-      </c>
-      <c r="I2" s="27">
-        <v>5</v>
-      </c>
-      <c r="J2" s="28">
+      <c r="C2" s="25">
+        <v>4</v>
+      </c>
+      <c r="D2" s="26">
+        <v>5</v>
+      </c>
+      <c r="E2" s="26">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
+        <v>5</v>
+      </c>
+      <c r="G2" s="26">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26">
+        <v>5</v>
+      </c>
+      <c r="I2" s="26">
+        <v>5</v>
+      </c>
+      <c r="J2" s="27">
         <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>3</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>3</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>3</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>3</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>3</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>3</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>2</v>
       </c>
-      <c r="D4" s="26">
-        <v>4</v>
-      </c>
-      <c r="E4" s="26">
-        <v>4</v>
-      </c>
-      <c r="F4" s="26">
-        <v>4</v>
-      </c>
-      <c r="G4" s="26">
-        <v>4</v>
-      </c>
-      <c r="H4" s="26">
-        <v>4</v>
-      </c>
-      <c r="I4" s="26">
-        <v>4</v>
-      </c>
-      <c r="J4" s="30">
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
+      <c r="E4" s="25">
+        <v>4</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4</v>
+      </c>
+      <c r="G4" s="25">
+        <v>4</v>
+      </c>
+      <c r="H4" s="25">
+        <v>4</v>
+      </c>
+      <c r="I4" s="25">
+        <v>4</v>
+      </c>
+      <c r="J4" s="29">
         <v>3.71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="26">
-        <v>4</v>
-      </c>
-      <c r="D5" s="26">
-        <v>4</v>
-      </c>
-      <c r="E5" s="27">
-        <v>5</v>
-      </c>
-      <c r="F5" s="27">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27">
-        <v>5</v>
-      </c>
-      <c r="H5" s="27">
-        <v>5</v>
-      </c>
-      <c r="I5" s="27">
-        <v>5</v>
-      </c>
-      <c r="J5" s="31">
+      <c r="C5" s="25">
+        <v>4</v>
+      </c>
+      <c r="D5" s="25">
+        <v>4</v>
+      </c>
+      <c r="E5" s="26">
+        <v>5</v>
+      </c>
+      <c r="F5" s="26">
+        <v>5</v>
+      </c>
+      <c r="G5" s="26">
+        <v>5</v>
+      </c>
+      <c r="H5" s="26">
+        <v>5</v>
+      </c>
+      <c r="I5" s="26">
+        <v>5</v>
+      </c>
+      <c r="J5" s="30">
         <v>4.71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>3</v>
       </c>
-      <c r="D6" s="27">
-        <v>5</v>
-      </c>
-      <c r="E6" s="26">
-        <v>4</v>
-      </c>
-      <c r="F6" s="26">
-        <v>4</v>
-      </c>
-      <c r="G6" s="26">
-        <v>4</v>
-      </c>
-      <c r="H6" s="26">
-        <v>4</v>
-      </c>
-      <c r="I6" s="26">
-        <v>4</v>
-      </c>
-      <c r="J6" s="31">
+      <c r="D6" s="26">
+        <v>5</v>
+      </c>
+      <c r="E6" s="25">
+        <v>4</v>
+      </c>
+      <c r="F6" s="25">
+        <v>4</v>
+      </c>
+      <c r="G6" s="25">
+        <v>4</v>
+      </c>
+      <c r="H6" s="25">
+        <v>4</v>
+      </c>
+      <c r="I6" s="25">
+        <v>4</v>
+      </c>
+      <c r="J6" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
         <f t="shared" ref="C7:I7" si="0">AVERAGE(C2:C6)</f>
         <v>3.2</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="30">
         <v>4.0599999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-12</v>
+      </c>
+      <c r="B2">
+        <f>(-1/18)*POWER(A2,2)+12</f>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>(-1/8)*POWER(A2+8,2)+6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-11</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B26" si="0">(-1/18)*POWER(A3,2)+12</f>
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">(-1/8)*POWER(A3+8,2)+6</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-10</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>10.611111111111111</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C10">
+        <f>(-1/8)*POWER(A10,2)+6</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>2*POWER(A10+3,2)-9</f>
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <f>1.5*POWER(A10+3,2)-10</f>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-3</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C18" si="2">(-1/8)*POWER(A11,2)+6</f>
+        <v>4.875</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F14" si="3">2*POWER(A11+3,2)-9</f>
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="4">1.5*POWER(A11+3,2)-10</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:E26" si="5">(-1/8)*POWER(B18-8,2)+6</f>
+        <v>4.7901234567901234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>10.611111111111111</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>5.1477623456790127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>5.7959104938271606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>5.9753086419753085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>5.96875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>5.6975308641975309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>5.0736882716049392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/задания excel.xlsx
+++ b/задания excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" tabRatio="897" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" tabRatio="897" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="январь" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="Лист3" sheetId="16" r:id="rId16"/>
     <sheet name="Лист4" sheetId="17" r:id="rId17"/>
     <sheet name="Лист5" sheetId="18" r:id="rId18"/>
+    <sheet name="Лист6" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t>вторник</t>
   </si>
@@ -1831,7 +1832,576 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист6!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.2000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.4000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.6000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.8000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.0000000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист6!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.88000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.0000000000000515E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2800000000000029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7200000000000042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.3200000000000038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0800000000000072</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0200000000000085</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.080000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.180000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.320000000000014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.720000000000017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.980000000000018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.280000000000022</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.620000000000022</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23.420000000000027</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.880000000000027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.380000000000031</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.920000000000034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.500000000000028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90D5-4245-8BB4-EEE1326842C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="76366992"/>
+        <c:axId val="76358672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="76366992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76358672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76358672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76366992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2387,6 +2957,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2405,6 +3491,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3851,7 +4972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -4251,6 +5372,439 @@
       <c r="E26">
         <f t="shared" si="5"/>
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>0.5*(POWER(A2,2)-5)</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+$B$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B42" si="0">0.5*(POWER(A3,2)-5)</f>
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A42" si="1">A3+$B$1</f>
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-2.1799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-1.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-1.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-1.2200000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-0.88000000000000034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>-0.50000000000000044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000515E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.37999999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.88000000000000034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.4200000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.6200000000000019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3.2800000000000029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.9800000000000031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000012</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>4.7200000000000042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>6.3200000000000038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>7.180000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>8.0800000000000072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000016</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>9.0200000000000085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>10.000000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>5.200000000000002</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>11.02000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>12.080000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000023</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>13.180000000000012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000025</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>14.320000000000014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>15.500000000000014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>16.720000000000017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>6.400000000000003</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>17.980000000000018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000032</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>19.280000000000022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000034</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>20.620000000000022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000036</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>22.000000000000025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000037</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>23.420000000000027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000039</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>24.880000000000027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>7.6000000000000041</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>26.380000000000031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000043</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>27.920000000000034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000036</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>29.500000000000028</v>
       </c>
     </row>
   </sheetData>
